--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_LSPMW_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_LSPMW_Lineal_Estacionario_ARMA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-1.584242975424143</v>
+        <v>-1.436217425223833</v>
       </c>
       <c r="D2">
-        <v>0.1133267574588015</v>
+        <v>0.1650088613005696</v>
       </c>
       <c r="E2">
         <v>0.7717266479720514</v>
@@ -467,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.9722448850419562</v>
+        <v>-0.9610255142477673</v>
       </c>
       <c r="D3">
-        <v>0.3310687777445311</v>
+        <v>0.346983647897313</v>
       </c>
       <c r="E3">
         <v>0.7717266479720514</v>
@@ -493,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.9550756556568902</v>
+        <v>-1.108421809652071</v>
       </c>
       <c r="D4">
-        <v>0.339676924138075</v>
+        <v>0.2796506844722986</v>
       </c>
       <c r="E4">
         <v>0.7717266479720514</v>
@@ -519,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.5040142382228827</v>
+        <v>0.5081432632920728</v>
       </c>
       <c r="D5">
-        <v>0.6143174984448381</v>
+        <v>0.6164102838262626</v>
       </c>
       <c r="E5">
         <v>0.7717266479720514</v>
@@ -545,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.5963945118793075</v>
+        <v>0.5300394964552408</v>
       </c>
       <c r="D6">
-        <v>0.5509921033075655</v>
+        <v>0.6013937355079939</v>
       </c>
       <c r="E6">
         <v>0.8200719197065652</v>
@@ -571,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.4408714075664554</v>
+        <v>0.5684900363574008</v>
       </c>
       <c r="D7">
-        <v>0.6593628532461415</v>
+        <v>0.5754598973852505</v>
       </c>
       <c r="E7">
         <v>0.8200719197065652</v>
@@ -597,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>2.099229177453392</v>
+        <v>2.011693928322679</v>
       </c>
       <c r="D8">
-        <v>0.03594567373689173</v>
+        <v>0.05665866460692293</v>
       </c>
       <c r="E8">
         <v>0.8200719197065652</v>
@@ -609,7 +606,7 @@
         <v>0.7557604602926939</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -623,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.111379124637855</v>
+        <v>-0.1314882689649431</v>
       </c>
       <c r="D9">
-        <v>0.9113290257269797</v>
+        <v>0.8965841351408768</v>
       </c>
       <c r="E9">
         <v>0.800788382690373</v>
@@ -649,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>1.482281120894712</v>
+        <v>1.306522625511748</v>
       </c>
       <c r="D10">
-        <v>0.1384531659751538</v>
+        <v>0.2048692688869607</v>
       </c>
       <c r="E10">
         <v>0.800788382690373</v>
@@ -675,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>1.460630180630466</v>
+        <v>1.477219956278157</v>
       </c>
       <c r="D11">
-        <v>0.1443040548747714</v>
+        <v>0.1537898730252496</v>
       </c>
       <c r="E11">
         <v>0.8044919219655247</v>
